--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/L1cam-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/L1cam-Erbb2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H2">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I2">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J2">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N2">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O2">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P2">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q2">
-        <v>42.98692318873279</v>
+        <v>5.793859018959667</v>
       </c>
       <c r="R2">
-        <v>386.882308698595</v>
+        <v>52.144731170637</v>
       </c>
       <c r="S2">
-        <v>0.1883253555790388</v>
+        <v>0.06309680250316013</v>
       </c>
       <c r="T2">
-        <v>0.1883253555790388</v>
+        <v>0.06309680250316012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H3">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I3">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J3">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.713403</v>
       </c>
       <c r="O3">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P3">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q3">
-        <v>83.57298558463768</v>
+        <v>15.618445250107</v>
       </c>
       <c r="R3">
-        <v>752.1568702617391</v>
+        <v>140.566007250963</v>
       </c>
       <c r="S3">
-        <v>0.3661325598468064</v>
+        <v>0.170089391565722</v>
       </c>
       <c r="T3">
-        <v>0.3661325598468064</v>
+        <v>0.170089391565722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H4">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I4">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J4">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N4">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O4">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P4">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q4">
-        <v>56.41715546758568</v>
+        <v>11.512731483995</v>
       </c>
       <c r="R4">
-        <v>507.7543992082711</v>
+        <v>103.614583355955</v>
       </c>
       <c r="S4">
-        <v>0.2471630923093334</v>
+        <v>0.1253769797194651</v>
       </c>
       <c r="T4">
-        <v>0.2471630923093334</v>
+        <v>0.1253769797194651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.297477</v>
       </c>
       <c r="I5">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J5">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N5">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O5">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P5">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q5">
-        <v>0.216143978695</v>
+        <v>0.155884459441</v>
       </c>
       <c r="R5">
-        <v>1.945295808255</v>
+        <v>1.402960134969</v>
       </c>
       <c r="S5">
-        <v>0.0009469249861239959</v>
+        <v>0.001697626904361016</v>
       </c>
       <c r="T5">
-        <v>0.000946924986123996</v>
+        <v>0.001697626904361016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.297477</v>
       </c>
       <c r="I6">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J6">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>12.713403</v>
       </c>
       <c r="O6">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P6">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q6">
         <v>0.420216109359</v>
@@ -818,10 +818,10 @@
         <v>3.781944984231</v>
       </c>
       <c r="S6">
-        <v>0.00184096330569238</v>
+        <v>0.004576275117172598</v>
       </c>
       <c r="T6">
-        <v>0.00184096330569238</v>
+        <v>0.004576275117172598</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.297477</v>
       </c>
       <c r="I7">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J7">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N7">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O7">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P7">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q7">
-        <v>0.283672976451</v>
+        <v>0.309751396815</v>
       </c>
       <c r="R7">
-        <v>2.553056788059</v>
+        <v>2.787762571335</v>
       </c>
       <c r="S7">
-        <v>0.001242768967756721</v>
+        <v>0.003373282409178015</v>
       </c>
       <c r="T7">
-        <v>0.001242768967756721</v>
+        <v>0.003373282409178015</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H8">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I8">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J8">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N8">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O8">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P8">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q8">
-        <v>10.42192865221</v>
+        <v>10.20880107525634</v>
       </c>
       <c r="R8">
-        <v>93.79735786988999</v>
+        <v>91.879209677307</v>
       </c>
       <c r="S8">
-        <v>0.04565838337927996</v>
+        <v>0.1111767999759094</v>
       </c>
       <c r="T8">
-        <v>0.04565838337927996</v>
+        <v>0.1111767999759094</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H9">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I9">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J9">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>12.713403</v>
       </c>
       <c r="O9">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P9">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q9">
-        <v>20.261782616802</v>
+        <v>27.519758444477</v>
       </c>
       <c r="R9">
-        <v>182.356043551218</v>
+        <v>247.677826000293</v>
       </c>
       <c r="S9">
-        <v>0.0887667023578598</v>
+        <v>0.2996981386367293</v>
       </c>
       <c r="T9">
-        <v>0.0887667023578598</v>
+        <v>0.2996981386367293</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H10">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I10">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J10">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N10">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O10">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P10">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q10">
-        <v>13.678010088378</v>
+        <v>20.285475564445</v>
       </c>
       <c r="R10">
-        <v>123.102090795402</v>
+        <v>182.569280080005</v>
       </c>
       <c r="S10">
-        <v>0.05992324926810848</v>
+        <v>0.2209147031683025</v>
       </c>
       <c r="T10">
-        <v>0.05992324926810848</v>
+        <v>0.2209147031683024</v>
       </c>
     </row>
   </sheetData>
